--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T12:02:56+00:00</t>
+    <t>2022-04-20T16:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:54:19+00:00</t>
+    <t>2022-04-21T07:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T07:12:34+00:00</t>
+    <t>2022-04-22T12:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:41:11+00:00</t>
+    <t>2022-04-22T12:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:50:48+00:00</t>
+    <t>2022-04-22T14:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T14:55:40+00:00</t>
+    <t>2022-05-04T13:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:51:33+00:00</t>
+    <t>2022-05-23T11:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:41:38+00:00</t>
+    <t>2022-05-23T13:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T13:12:45+00:00</t>
+    <t>2022-05-24T10:44:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:44:26+00:00</t>
+    <t>2022-07-14T07:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T07:12:54+00:00</t>
+    <t>2022-07-25T13:12:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:12:11+00:00</t>
+    <t>2022-07-25T14:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:21:42+00:00</t>
+    <t>2022-07-25T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:41:10+00:00</t>
+    <t>2022-08-01T09:41:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:41:51+00:00</t>
+    <t>2022-08-01T09:45:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:45:26+00:00</t>
+    <t>2022-08-01T09:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:59:26+00:00</t>
+    <t>2022-08-03T15:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T15:26:13+00:00</t>
+    <t>2022-08-08T13:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:17:46+00:00</t>
+    <t>2022-08-08T13:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>SD_Histopathological_Grading_WHO</t>
+    <t>Histopathological_Grading_WHO</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:24:36+00:00</t>
+    <t>2022-08-09T12:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:15:50+00:00</t>
+    <t>2022-08-10T11:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T11:55:04+00:00</t>
+    <t>2022-08-15T15:57:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,10 +277,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -302,7 +298,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -701,6 +697,10 @@
   </si>
   <si>
     <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2019,37 +2019,37 @@
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.9375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.27734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.28125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -2280,19 +2280,19 @@
         <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>82</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2314,28 +2314,28 @@
         <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2385,13 +2385,13 @@
         <v>82</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>82</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2431,25 +2431,25 @@
         <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2500,19 +2500,19 @@
         <v>82</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>82</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2546,28 +2546,28 @@
         <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2617,19 +2617,19 @@
         <v>82</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>82</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2663,7 +2663,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>82</v>
@@ -2675,16 +2675,16 @@
         <v>82</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2710,43 +2710,43 @@
         <v>82</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>82</v>
@@ -2769,18 +2769,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>82</v>
@@ -2792,16 +2792,16 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2851,31 +2851,31 @@
         <v>82</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>82</v>
@@ -2886,11 +2886,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2909,16 +2909,16 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2968,7 +2968,7 @@
         <v>82</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -2992,7 +2992,7 @@
         <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>82</v>
@@ -3003,11 +3003,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3026,16 +3026,16 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3085,7 +3085,7 @@
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>80</v>
@@ -3097,7 +3097,7 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>82</v>
@@ -3109,7 +3109,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -3120,11 +3120,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3137,25 +3137,25 @@
         <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>82</v>
@@ -3204,7 +3204,7 @@
         <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>80</v>
@@ -3216,7 +3216,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>82</v>
@@ -3228,7 +3228,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3259,20 +3259,20 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>82</v>
@@ -3321,7 +3321,7 @@
         <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>80</v>
@@ -3333,22 +3333,22 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>82</v>
@@ -3356,11 +3356,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3376,20 +3376,20 @@
         <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>82</v>
@@ -3438,7 +3438,7 @@
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>80</v>
@@ -3450,19 +3450,19 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>82</v>
@@ -3473,11 +3473,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3493,19 +3493,19 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3555,7 +3555,7 @@
         <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -3567,19 +3567,19 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>82</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3598,34 +3598,34 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="I14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>82</v>
@@ -3650,58 +3650,58 @@
         <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>81</v>
@@ -3732,19 +3732,19 @@
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>82</v>
@@ -3769,29 +3769,29 @@
         <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>80</v>
@@ -3803,7 +3803,7 @@
         <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>82</v>
@@ -3815,10 +3815,10 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -3826,17 +3826,17 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>81</v>
@@ -3851,19 +3851,19 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>82</v>
@@ -3873,7 +3873,7 @@
         <v>82</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>82</v>
@@ -3888,14 +3888,14 @@
         <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>82</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>80</v>
@@ -3924,7 +3924,7 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>82</v>
@@ -3936,10 +3936,10 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -3947,42 +3947,42 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>82</v>
@@ -4007,66 +4007,66 @@
         <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4077,7 +4077,7 @@
         <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>82</v>
@@ -4089,7 +4089,7 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>219</v>
@@ -4152,7 +4152,7 @@
         <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>82</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4204,16 +4204,16 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4260,7 +4260,7 @@
         <v>82</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>227</v>
@@ -4275,7 +4275,7 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>82</v>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>81</v>
@@ -4318,7 +4318,7 @@
         <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>229</v>
@@ -4370,14 +4370,14 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>234</v>
@@ -4392,7 +4392,7 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>82</v>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>81</v>
@@ -4437,7 +4437,7 @@
         <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>229</v>
@@ -4513,7 +4513,7 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>82</v>
@@ -4547,7 +4547,7 @@
         <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>82</v>
@@ -4559,7 +4559,7 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>219</v>
@@ -4622,7 +4622,7 @@
         <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>82</v>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4674,16 +4674,16 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4730,7 +4730,7 @@
         <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>227</v>
@@ -4745,7 +4745,7 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>82</v>
@@ -4776,22 +4776,22 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>242</v>
@@ -4858,13 +4858,13 @@
         <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>82</v>
@@ -4898,19 +4898,19 @@
         <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>250</v>
@@ -4975,13 +4975,13 @@
         <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>82</v>
@@ -5012,22 +5012,22 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>257</v>
@@ -5092,13 +5092,13 @@
         <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>82</v>
@@ -5132,19 +5132,19 @@
         <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>264</v>
@@ -5209,13 +5209,13 @@
         <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>82</v>
@@ -5249,16 +5249,16 @@
         <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>271</v>
@@ -5328,13 +5328,13 @@
         <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>82</v>
@@ -5379,7 +5379,7 @@
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>229</v>
@@ -5455,7 +5455,7 @@
         <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>82</v>
@@ -5489,7 +5489,7 @@
         <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>82</v>
@@ -5501,7 +5501,7 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>219</v>
@@ -5564,7 +5564,7 @@
         <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>82</v>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5616,16 +5616,16 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5672,7 +5672,7 @@
         <v>82</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>227</v>
@@ -5687,7 +5687,7 @@
         <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>82</v>
@@ -5718,22 +5718,22 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>242</v>
@@ -5800,13 +5800,13 @@
         <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>82</v>
@@ -5840,19 +5840,19 @@
         <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>250</v>
@@ -5917,13 +5917,13 @@
         <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>82</v>
@@ -5954,22 +5954,22 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>257</v>
@@ -6034,13 +6034,13 @@
         <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>82</v>
@@ -6074,19 +6074,19 @@
         <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>264</v>
@@ -6151,13 +6151,13 @@
         <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>82</v>
@@ -6191,16 +6191,16 @@
         <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>271</v>
@@ -6270,13 +6270,13 @@
         <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>82</v>
@@ -6310,19 +6310,19 @@
         <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>282</v>
@@ -6389,13 +6389,13 @@
         <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>82</v>
@@ -6426,19 +6426,19 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>290</v>
@@ -6508,13 +6508,13 @@
         <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>295</v>
@@ -6557,7 +6557,7 @@
         <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>300</v>
@@ -6631,7 +6631,7 @@
         <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>82</v>
@@ -6640,7 +6640,7 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>304</v>
@@ -6665,16 +6665,16 @@
         <v>80</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>307</v>
@@ -6744,13 +6744,13 @@
         <v>80</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>312</v>
@@ -6784,16 +6784,16 @@
         <v>80</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>318</v>
@@ -6863,13 +6863,13 @@
         <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>323</v>
@@ -6903,16 +6903,16 @@
         <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>328</v>
@@ -6980,13 +6980,13 @@
         <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>82</v>
@@ -7029,7 +7029,7 @@
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>336</v>
@@ -7103,7 +7103,7 @@
         <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>340</v>
@@ -7137,19 +7137,19 @@
         <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>345</v>
@@ -7214,13 +7214,13 @@
         <v>80</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>82</v>
@@ -7256,19 +7256,19 @@
         <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>345</v>
@@ -7335,13 +7335,13 @@
         <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>82</v>
@@ -7375,7 +7375,7 @@
         <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>82</v>
@@ -7387,7 +7387,7 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>219</v>
@@ -7450,7 +7450,7 @@
         <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>82</v>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7502,16 +7502,16 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7558,7 +7558,7 @@
         <v>82</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>227</v>
@@ -7573,7 +7573,7 @@
         <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>82</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>81</v>
@@ -7616,7 +7616,7 @@
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>229</v>
@@ -7668,14 +7668,14 @@
         <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>234</v>
@@ -7690,7 +7690,7 @@
         <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>82</v>
@@ -7723,19 +7723,19 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="H49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>229</v>
@@ -7775,7 +7775,7 @@
         <v>82</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
@@ -7809,7 +7809,7 @@
         <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>82</v>
@@ -7843,7 +7843,7 @@
         <v>80</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>82</v>
@@ -7855,7 +7855,7 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>219</v>
@@ -7918,7 +7918,7 @@
         <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>82</v>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7970,16 +7970,16 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8026,7 +8026,7 @@
         <v>82</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>227</v>
@@ -8041,7 +8041,7 @@
         <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>82</v>
@@ -8072,22 +8072,22 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>242</v>
@@ -8154,13 +8154,13 @@
         <v>80</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>82</v>
@@ -8194,19 +8194,19 @@
         <v>80</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>250</v>
@@ -8271,13 +8271,13 @@
         <v>80</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>82</v>
@@ -8308,22 +8308,22 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F54" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>257</v>
@@ -8388,13 +8388,13 @@
         <v>80</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>82</v>
@@ -8428,19 +8428,19 @@
         <v>80</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>264</v>
@@ -8505,13 +8505,13 @@
         <v>80</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>82</v>
@@ -8545,16 +8545,16 @@
         <v>80</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>271</v>
@@ -8624,13 +8624,13 @@
         <v>80</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>82</v>
@@ -8664,19 +8664,19 @@
         <v>80</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>282</v>
@@ -8743,13 +8743,13 @@
         <v>80</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>82</v>
@@ -8783,7 +8783,7 @@
         <v>80</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>82</v>
@@ -8795,7 +8795,7 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>372</v>
@@ -8862,13 +8862,13 @@
         <v>80</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>379</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>82</v>
@@ -8877,7 +8877,7 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>380</v>
@@ -8914,7 +8914,7 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>383</v>
@@ -8987,7 +8987,7 @@
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>82</v>
@@ -9106,7 +9106,7 @@
         <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>82</v>
@@ -9140,7 +9140,7 @@
         <v>80</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>82</v>
@@ -9152,7 +9152,7 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>402</v>
@@ -9187,7 +9187,7 @@
         <v>82</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X61" t="s" s="2">
         <v>405</v>
@@ -9217,13 +9217,13 @@
         <v>80</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>82</v>
@@ -9257,7 +9257,7 @@
         <v>80</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>82</v>
@@ -9269,7 +9269,7 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>412</v>
@@ -9306,7 +9306,7 @@
         <v>82</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X62" t="s" s="2">
         <v>416</v>
@@ -9336,13 +9336,13 @@
         <v>80</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>82</v>
@@ -9376,7 +9376,7 @@
         <v>80</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>82</v>
@@ -9453,13 +9453,13 @@
         <v>80</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>82</v>
@@ -9493,7 +9493,7 @@
         <v>80</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>82</v>
@@ -9570,13 +9570,13 @@
         <v>80</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>82</v>
@@ -9729,7 +9729,7 @@
         <v>80</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>82</v>
@@ -9741,7 +9741,7 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>219</v>
@@ -9804,7 +9804,7 @@
         <v>80</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>82</v>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9856,16 +9856,16 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9927,7 +9927,7 @@
         <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>82</v>
@@ -9967,13 +9967,13 @@
         <v>82</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>451</v>
@@ -9982,10 +9982,10 @@
         <v>452</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>82</v>
@@ -10046,7 +10046,7 @@
         <v>82</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>82</v>
@@ -10058,7 +10058,7 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10080,7 +10080,7 @@
         <v>80</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>82</v>
@@ -10155,13 +10155,13 @@
         <v>80</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>458</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>82</v>
@@ -10195,7 +10195,7 @@
         <v>80</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>82</v>
@@ -10270,13 +10270,13 @@
         <v>80</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>458</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>82</v>
@@ -10310,7 +10310,7 @@
         <v>80</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>82</v>
@@ -10322,7 +10322,7 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>466</v>
@@ -10359,7 +10359,7 @@
         <v>82</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X71" t="s" s="2">
         <v>470</v>
@@ -10389,13 +10389,13 @@
         <v>80</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>82</v>
@@ -10441,7 +10441,7 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>475</v>
@@ -10478,7 +10478,7 @@
         <v>82</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X72" t="s" s="2">
         <v>479</v>
@@ -10514,7 +10514,7 @@
         <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>82</v>
@@ -10548,7 +10548,7 @@
         <v>80</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>82</v>
@@ -10625,13 +10625,13 @@
         <v>80</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>82</v>
@@ -10665,7 +10665,7 @@
         <v>80</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>82</v>
@@ -10677,7 +10677,7 @@
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>488</v>
@@ -10740,13 +10740,13 @@
         <v>80</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>82</v>
@@ -10789,7 +10789,7 @@
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>492</v>
@@ -10863,7 +10863,7 @@
         <v>82</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>82</v>
@@ -10906,7 +10906,7 @@
         <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>499</v>
@@ -10980,7 +10980,7 @@
         <v>82</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>82</v>
@@ -11023,7 +11023,7 @@
         <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>439</v>
@@ -11099,7 +11099,7 @@
         <v>82</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>82</v>
@@ -11133,7 +11133,7 @@
         <v>80</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>82</v>
@@ -11145,7 +11145,7 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>219</v>
@@ -11208,7 +11208,7 @@
         <v>80</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>82</v>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11260,16 +11260,16 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11331,7 +11331,7 @@
         <v>82</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>82</v>
@@ -11371,13 +11371,13 @@
         <v>82</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>451</v>
@@ -11386,10 +11386,10 @@
         <v>452</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>82</v>
@@ -11450,7 +11450,7 @@
         <v>82</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>82</v>
@@ -11462,7 +11462,7 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11481,22 +11481,22 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F81" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J81" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>515</v>
@@ -11508,7 +11508,7 @@
         <v>517</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>82</v>
@@ -11533,13 +11533,13 @@
         <v>82</v>
       </c>
       <c r="W81" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="X81" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="X81" t="s" s="2">
+      <c r="Y81" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>82</v>
@@ -11560,16 +11560,16 @@
         <v>514</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>82</v>
@@ -11578,13 +11578,13 @@
         <v>518</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -11603,16 +11603,16 @@
         <v>80</v>
       </c>
       <c r="F82" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>520</v>
@@ -11682,13 +11682,13 @@
         <v>80</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>82</v>
@@ -11722,7 +11722,7 @@
         <v>80</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>82</v>
@@ -11734,7 +11734,7 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>525</v>
@@ -11801,13 +11801,13 @@
         <v>80</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>379</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>82</v>
@@ -11816,7 +11816,7 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>380</v>
@@ -11853,7 +11853,7 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>383</v>
@@ -11926,7 +11926,7 @@
         <v>82</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>82</v>
@@ -12045,7 +12045,7 @@
         <v>82</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T11:42:20+00:00</t>
+    <t>2023-04-11T09:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:35+00:00</t>
+    <t>2023-04-17T09:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="515">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:27:50+00:00</t>
+    <t>2023-09-27T08:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2103,19 +2107,19 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>41</v>
@@ -2126,10 +2130,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2140,7 +2144,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -2149,19 +2153,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2211,13 +2215,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -2246,10 +2250,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2260,7 +2264,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -2269,16 +2273,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2329,19 +2333,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2364,10 +2368,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2378,28 +2382,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2449,19 +2453,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2484,10 +2488,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2498,7 +2502,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2510,16 +2514,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2545,13 +2549,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -2569,19 +2573,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2604,21 +2608,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2630,16 +2634,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2689,19 +2693,19 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>41</v>
@@ -2713,7 +2717,7 @@
         <v>41</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>41</v>
@@ -2724,14 +2728,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2750,16 +2754,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2809,7 +2813,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2833,7 +2837,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>41</v>
@@ -2844,14 +2848,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2870,16 +2874,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2929,7 +2933,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2941,7 +2945,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2953,7 +2957,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>41</v>
@@ -2964,14 +2968,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2984,25 +2988,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -3051,7 +3055,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -3063,7 +3067,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -3075,7 +3079,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>41</v>
@@ -3086,10 +3090,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3109,20 +3113,20 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -3171,7 +3175,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3183,22 +3187,22 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>41</v>
@@ -3206,14 +3210,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3229,20 +3233,20 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -3291,7 +3295,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3303,19 +3307,19 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>41</v>
@@ -3326,14 +3330,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3349,19 +3353,19 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3411,7 +3415,7 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3423,19 +3427,19 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>41</v>
@@ -3446,10 +3450,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3457,34 +3461,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3509,13 +3513,13 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
@@ -3533,34 +3537,34 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>41</v>
@@ -3568,10 +3572,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3579,7 +3583,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -3594,19 +3598,19 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3631,29 +3635,29 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3665,7 +3669,7 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -3677,10 +3681,10 @@
         <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>41</v>
@@ -3688,20 +3692,20 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
@@ -3716,19 +3720,19 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3738,7 +3742,7 @@
         <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>41</v>
@@ -3753,13 +3757,13 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3777,7 +3781,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3789,7 +3793,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -3801,10 +3805,10 @@
         <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>41</v>
@@ -3812,21 +3816,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
@@ -3835,22 +3839,22 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3875,13 +3879,13 @@
         <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>41</v>
@@ -3899,45 +3903,45 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3948,7 +3952,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3960,13 +3964,13 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4017,13 +4021,13 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
@@ -4041,7 +4045,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -4052,14 +4056,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4078,16 +4082,16 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4125,19 +4129,19 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4149,7 +4153,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -4161,7 +4165,7 @@
         <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4172,10 +4176,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4183,7 +4187,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -4195,22 +4199,22 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -4247,17 +4251,17 @@
         <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4269,7 +4273,7 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -4278,10 +4282,10 @@
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4292,20 +4296,20 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -4317,22 +4321,22 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
@@ -4342,7 +4346,7 @@
         <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>41</v>
@@ -4381,7 +4385,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4393,7 +4397,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -4402,10 +4406,10 @@
         <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4416,10 +4420,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4430,7 +4434,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -4442,13 +4446,13 @@
         <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4499,13 +4503,13 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
@@ -4523,7 +4527,7 @@
         <v>41</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4534,14 +4538,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4560,16 +4564,16 @@
         <v>41</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4607,19 +4611,19 @@
         <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4631,7 +4635,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -4643,7 +4647,7 @@
         <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>41</v>
@@ -4654,10 +4658,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4665,10 +4669,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -4677,22 +4681,22 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4741,19 +4745,19 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -4762,10 +4766,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -4776,10 +4780,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4790,7 +4794,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4799,19 +4803,19 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4861,19 +4865,19 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -4882,10 +4886,10 @@
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -4896,10 +4900,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4907,10 +4911,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4919,20 +4923,20 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4981,19 +4985,19 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -5002,10 +5006,10 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -5016,10 +5020,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5030,7 +5034,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -5039,20 +5043,20 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -5101,19 +5105,19 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
@@ -5122,10 +5126,10 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -5136,10 +5140,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5150,7 +5154,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -5159,22 +5163,22 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -5223,19 +5227,19 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -5244,10 +5248,10 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>41</v>
@@ -5258,13 +5262,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>41</v>
@@ -5283,22 +5287,22 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -5308,7 +5312,7 @@
         <v>41</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>41</v>
@@ -5347,7 +5351,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5359,7 +5363,7 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
@@ -5368,10 +5372,10 @@
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5382,10 +5386,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5396,7 +5400,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -5408,13 +5412,13 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5465,13 +5469,13 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
@@ -5489,7 +5493,7 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5500,14 +5504,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5526,16 +5530,16 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5573,19 +5577,19 @@
         <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5597,7 +5601,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -5609,7 +5613,7 @@
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5620,10 +5624,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5631,10 +5635,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -5643,22 +5647,22 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5707,19 +5711,19 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -5728,10 +5732,10 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5742,10 +5746,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5756,7 +5760,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -5765,19 +5769,19 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5827,19 +5831,19 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -5848,10 +5852,10 @@
         <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -5862,10 +5866,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5873,10 +5877,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5885,20 +5889,20 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5947,19 +5951,19 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -5968,10 +5972,10 @@
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -5982,10 +5986,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5996,7 +6000,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -6005,20 +6009,20 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -6067,19 +6071,19 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
@@ -6088,10 +6092,10 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6102,10 +6106,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6116,7 +6120,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -6125,22 +6129,22 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -6189,19 +6193,19 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -6210,10 +6214,10 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6224,10 +6228,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6238,7 +6242,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -6247,22 +6251,22 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -6311,19 +6315,19 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
@@ -6332,10 +6336,10 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6346,10 +6350,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6357,10 +6361,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -6369,22 +6373,22 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6433,34 +6437,34 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>41</v>
@@ -6468,10 +6472,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6491,19 +6495,19 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6553,7 +6557,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6565,7 +6569,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
@@ -6574,13 +6578,13 @@
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>41</v>
@@ -6588,21 +6592,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -6611,22 +6615,22 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6675,34 +6679,34 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>41</v>
@@ -6710,21 +6714,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -6733,22 +6737,22 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6797,34 +6801,34 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>41</v>
@@ -6832,10 +6836,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6846,7 +6850,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -6855,19 +6859,19 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6917,19 +6921,19 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -6938,13 +6942,13 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>41</v>
@@ -6952,10 +6956,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6975,20 +6979,20 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -7037,7 +7041,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7049,22 +7053,22 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>41</v>
@@ -7072,10 +7076,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7086,7 +7090,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -7095,22 +7099,22 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -7159,45 +7163,45 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7208,7 +7212,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -7220,13 +7224,13 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7277,13 +7281,13 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>41</v>
@@ -7301,7 +7305,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7312,14 +7316,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7338,16 +7342,16 @@
         <v>41</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7385,19 +7389,19 @@
         <v>41</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7409,7 +7413,7 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
@@ -7421,7 +7425,7 @@
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7432,10 +7436,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7443,7 +7447,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -7455,22 +7459,22 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>41</v>
@@ -7507,17 +7511,17 @@
         <v>41</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7529,7 +7533,7 @@
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
@@ -7538,10 +7542,10 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
@@ -7552,47 +7556,47 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="B47" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="C47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7602,7 +7606,7 @@
         <v>41</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>41</v>
@@ -7617,11 +7621,11 @@
         <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>41</v>
@@ -7639,7 +7643,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7651,7 +7655,7 @@
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>41</v>
@@ -7660,10 +7664,10 @@
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7674,10 +7678,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7688,7 +7692,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -7700,13 +7704,13 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7757,13 +7761,13 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>41</v>
@@ -7781,7 +7785,7 @@
         <v>41</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7792,14 +7796,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7818,16 +7822,16 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7865,19 +7869,19 @@
         <v>41</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7889,7 +7893,7 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
@@ -7901,7 +7905,7 @@
         <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -7912,10 +7916,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7923,10 +7927,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>41</v>
@@ -7935,22 +7939,22 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -7999,19 +8003,19 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>
@@ -8020,10 +8024,10 @@
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8034,10 +8038,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8048,7 +8052,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
@@ -8057,19 +8061,19 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8119,19 +8123,19 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>41</v>
@@ -8140,10 +8144,10 @@
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>41</v>
@@ -8154,10 +8158,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8165,10 +8169,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -8177,20 +8181,20 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>41</v>
@@ -8239,19 +8243,19 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
@@ -8260,10 +8264,10 @@
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>41</v>
@@ -8274,10 +8278,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8288,7 +8292,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>41</v>
@@ -8297,20 +8301,20 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -8359,19 +8363,19 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
@@ -8380,10 +8384,10 @@
         <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>41</v>
@@ -8394,10 +8398,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8408,7 +8412,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -8417,22 +8421,22 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -8481,19 +8485,19 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
@@ -8502,10 +8506,10 @@
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>41</v>
@@ -8516,10 +8520,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8530,7 +8534,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -8539,22 +8543,22 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8603,19 +8607,19 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
@@ -8624,10 +8628,10 @@
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8638,10 +8642,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8652,7 +8656,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -8664,19 +8668,19 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>41</v>
@@ -8701,13 +8705,13 @@
         <v>41</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>41</v>
@@ -8725,19 +8729,19 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>41</v>
@@ -8746,10 +8750,10 @@
         <v>41</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8760,14 +8764,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8786,19 +8790,19 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>41</v>
@@ -8823,13 +8827,13 @@
         <v>41</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>41</v>
@@ -8847,7 +8851,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8859,33 +8863,33 @@
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8908,19 +8912,19 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -8969,7 +8973,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8981,7 +8985,7 @@
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>41</v>
@@ -8990,10 +8994,10 @@
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
@@ -9004,10 +9008,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9018,7 +9022,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -9030,16 +9034,16 @@
         <v>41</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9065,13 +9069,13 @@
         <v>41</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>41</v>
@@ -9089,45 +9093,45 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9138,7 +9142,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
@@ -9150,19 +9154,19 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9187,13 +9191,13 @@
         <v>41</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>41</v>
@@ -9211,19 +9215,19 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>41</v>
@@ -9232,10 +9236,10 @@
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9246,10 +9250,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9260,7 +9264,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>41</v>
@@ -9272,16 +9276,16 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9331,45 +9335,45 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9380,7 +9384,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>41</v>
@@ -9392,16 +9396,16 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9451,45 +9455,45 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9512,19 +9516,19 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -9573,7 +9577,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9585,7 +9589,7 @@
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
@@ -9594,10 +9598,10 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>41</v>
@@ -9608,10 +9612,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9622,7 +9626,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -9634,13 +9638,13 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9691,13 +9695,13 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>41</v>
@@ -9715,7 +9719,7 @@
         <v>41</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>41</v>
@@ -9726,14 +9730,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9752,16 +9756,16 @@
         <v>41</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9811,7 +9815,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9823,7 +9827,7 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>41</v>
@@ -9835,7 +9839,7 @@
         <v>41</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>41</v>
@@ -9846,14 +9850,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9866,25 +9870,25 @@
         <v>41</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -9933,7 +9937,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9945,7 +9949,7 @@
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>41</v>
@@ -9957,7 +9961,7 @@
         <v>41</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -9968,10 +9972,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9982,7 +9986,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>41</v>
@@ -9994,13 +9998,13 @@
         <v>41</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10051,19 +10055,19 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>41</v>
@@ -10072,10 +10076,10 @@
         <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10086,10 +10090,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10100,7 +10104,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>41</v>
@@ -10112,13 +10116,13 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10169,19 +10173,19 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>41</v>
@@ -10190,10 +10194,10 @@
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10204,10 +10208,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10218,7 +10222,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>41</v>
@@ -10230,19 +10234,19 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -10267,13 +10271,13 @@
         <v>41</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>41</v>
@@ -10291,31 +10295,31 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>41</v>
@@ -10326,10 +10330,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10352,19 +10356,19 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10389,13 +10393,13 @@
         <v>41</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>41</v>
@@ -10413,7 +10417,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10425,19 +10429,19 @@
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>41</v>
@@ -10448,10 +10452,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10462,7 +10466,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>41</v>
@@ -10474,17 +10478,17 @@
         <v>41</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>41</v>
@@ -10533,19 +10537,19 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>41</v>
@@ -10557,7 +10561,7 @@
         <v>41</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>41</v>
@@ -10568,10 +10572,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10582,7 +10586,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>41</v>
@@ -10594,13 +10598,13 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10651,19 +10655,19 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>41</v>
@@ -10672,10 +10676,10 @@
         <v>41</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>41</v>
@@ -10686,10 +10690,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10709,19 +10713,19 @@
         <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10771,7 +10775,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10783,7 +10787,7 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>41</v>
@@ -10792,10 +10796,10 @@
         <v>41</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>41</v>
@@ -10806,10 +10810,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10829,19 +10833,19 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10891,7 +10895,7 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10903,7 +10907,7 @@
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>41</v>
@@ -10912,10 +10916,10 @@
         <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -10926,10 +10930,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10949,22 +10953,22 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>41</v>
@@ -11013,7 +11017,7 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -11025,7 +11029,7 @@
         <v>41</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>41</v>
@@ -11034,10 +11038,10 @@
         <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>41</v>
@@ -11048,10 +11052,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11062,7 +11066,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>41</v>
@@ -11074,13 +11078,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11131,13 +11135,13 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>41</v>
@@ -11155,7 +11159,7 @@
         <v>41</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>41</v>
@@ -11166,14 +11170,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11192,16 +11196,16 @@
         <v>41</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11251,7 +11255,7 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11263,7 +11267,7 @@
         <v>41</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>41</v>
@@ -11275,7 +11279,7 @@
         <v>41</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>41</v>
@@ -11286,14 +11290,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11306,25 +11310,25 @@
         <v>41</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>41</v>
@@ -11373,7 +11377,7 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11385,7 +11389,7 @@
         <v>41</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>41</v>
@@ -11397,7 +11401,7 @@
         <v>41</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>41</v>
@@ -11408,10 +11412,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11419,10 +11423,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>41</v>
@@ -11431,22 +11435,22 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>41</v>
@@ -11471,13 +11475,13 @@
         <v>41</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>41</v>
@@ -11495,34 +11499,34 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>41</v>
@@ -11530,10 +11534,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11544,7 +11548,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>41</v>
@@ -11553,22 +11557,22 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>41</v>
@@ -11617,45 +11621,45 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11666,7 +11670,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>41</v>
@@ -11678,19 +11682,19 @@
         <v>41</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>41</v>
@@ -11715,13 +11719,13 @@
         <v>41</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>41</v>
@@ -11739,19 +11743,19 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>41</v>
@@ -11760,10 +11764,10 @@
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>41</v>
@@ -11774,14 +11778,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11800,19 +11804,19 @@
         <v>41</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>41</v>
@@ -11837,13 +11841,13 @@
         <v>41</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>41</v>
@@ -11861,7 +11865,7 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11873,33 +11877,33 @@
         <v>41</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11925,16 +11929,16 @@
         <v>42</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>41</v>
@@ -11983,7 +11987,7 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -11995,7 +11999,7 @@
         <v>41</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>41</v>
@@ -12004,10 +12008,10 @@
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histopathological-grading-who.xlsx
+++ b/StructureDefinition-histopathological-grading-who.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
